--- a/Crawling/music/crawled_data/live_flo/live_flo_20220502_154533.xlsx
+++ b/Crawling/music/crawled_data/live_flo/live_flo_20220502_154533.xlsx
@@ -2030,10 +2030,6 @@
       <c r="D59" t="s">
         <v>141</v>
       </c>
-      <c r="E59">
-        <f/>
-        <v>0</v>
-      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
